--- a/code/featureList.xlsx
+++ b/code/featureList.xlsx
@@ -1,150 +1,546 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>订单属性维度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>预估金额均值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_hour + start_geo_id + end_geo_id</t>
+  </si>
+  <si>
+    <t>weekOfDay + start_geo_id + end_geo_id</t>
+  </si>
+  <si>
+    <t>预估时间均值</t>
+  </si>
+  <si>
+    <t>start_geo_id + end_geo_id</t>
   </si>
   <si>
     <t>预估距离均值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预估时间均值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_hour + start_geo_id + end_geo_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weekOfDay + start_geo_id + end_geo_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start_geo_id + end_geo_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>地点维度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>节假日维度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星期维度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>距离维度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>起始点需求量占比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>终点需求量占比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>起始类需求量占比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>终点类需求类占比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>起点，终点需求量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>总数，均值，中位数，最大值，最小值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起点，终点需求量/ 历史相同终点的需求量</t>
+  </si>
+  <si>
+    <t>起点，终点需求量/ 历史相同起点的需求量</t>
   </si>
   <si>
     <t>起始，终点类需求量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起点，终点类需求量/ 历史相同终点的需求量</t>
+  </si>
+  <si>
+    <t>起点，终点类需求量/ 历史相同起点的需求量</t>
+  </si>
+  <si>
+    <t>时间维度</t>
   </si>
   <si>
     <t>小时 - 需求量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总数，均值，中位数，最大值，最小值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>星期 - 需求量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>工作日 - 需求量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间段 - 需求量</t>
+  </si>
+  <si>
+    <t>均值，中位数，最大值，最小值</t>
+  </si>
+  <si>
+    <t>时间段:
+1: 1-6
+2: 7-9
+3: 10-12
+4: 13-15
+5: 16-18
+6: 19-21
+0: 22-0</t>
+  </si>
+  <si>
+    <t>地点+时间维度</t>
+  </si>
+  <si>
+    <t>小时 - 起始，终点对 需求量</t>
+  </si>
+  <si>
+    <t>小时 - 起始，终点对 需求量 / 历史相同起点</t>
+  </si>
+  <si>
+    <t>小时 - 起始，终点对 需求量 / 历史相同终点</t>
+  </si>
+  <si>
+    <t>星期 - 起始，终点对 需求量</t>
+  </si>
+  <si>
+    <t>星期 - 起始，终点对 需求量 / 历史相同起点</t>
+  </si>
+  <si>
+    <t>星期 - 起始，终点对 需求量 / 历史相同终点</t>
+  </si>
+  <si>
+    <t>工作日 - 起始，终点对 需求量</t>
+  </si>
+  <si>
+    <t>工作日 - 起始，终点对 需求量 / 历史相同起点</t>
+  </si>
+  <si>
+    <t>工作日 - 起始，终点对 需求量 / 历史相同终点</t>
+  </si>
+  <si>
+    <t>时间段 - 起始，终点对 需求量</t>
+  </si>
+  <si>
+    <t>时间段 - 起始，终点对 需求量 / 历史相同起点</t>
+  </si>
+  <si>
+    <t>时间段 - 起始，终点对 需求量 / 历史相同终点</t>
+  </si>
+  <si>
+    <t>小时 - 起始，终点类对 需求量</t>
+  </si>
+  <si>
+    <t>小时 - 起始，终点类对 需求量 / 历史相同起点</t>
+  </si>
+  <si>
+    <t>小时 - 起始，终点类对 需求量 / 历史相同终点</t>
+  </si>
+  <si>
+    <t>星期 - 起始，终点类对 需求量</t>
+  </si>
+  <si>
+    <t>星期 - 起始，终点类对 需求量 / 历史相同起点</t>
+  </si>
+  <si>
+    <t>星期 - 起始，终点类对 需求量 / 历史相同终点</t>
+  </si>
+  <si>
+    <t>工作日 - 起始，终点类对 需求量</t>
+  </si>
+  <si>
+    <t>工作日 - 起始，终点类对 需求量 / 历史相同起点</t>
+  </si>
+  <si>
+    <t>工作日 - 起始，终点类对 需求量 / 历史相同终点</t>
+  </si>
+  <si>
+    <t>时间段 - 起始，终点类对 需求量</t>
+  </si>
+  <si>
+    <t>时间段 - 起始，终点类对 需求量 / 历史相同起点</t>
+  </si>
+  <si>
+    <t>时间段 - 起始，终点类对 需求量 / 历史相同终点</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -152,11 +548,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -164,18 +802,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -224,7 +915,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -259,7 +950,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -462,26 +1153,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" customWidth="1"/>
-    <col min="3" max="3" width="43.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.8833333333333" customWidth="1"/>
+    <col min="2" max="2" width="45.75" customWidth="1"/>
+    <col min="3" max="3" width="43.5583333333333" customWidth="1"/>
+    <col min="4" max="4" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,134 +1181,323 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1"/>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1"/>
+      <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1"/>
+      <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3"/>
+      <c r="B16" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3"/>
+      <c r="B17" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" ht="108" spans="1:4">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>10</v>
+      <c r="D18" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3"/>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3"/>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3"/>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3"/>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3"/>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3"/>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3"/>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3"/>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3"/>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3"/>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3"/>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3"/>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3"/>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3"/>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3"/>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="3"/>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="3"/>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="3"/>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3"/>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="3"/>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="3"/>
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="3"/>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="3"/>
+      <c r="B42" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="A5:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A42"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="A5:A10"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/code/featureList.xlsx
+++ b/code/featureList.xlsx
@@ -181,12 +181,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,9 +195,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,84 +218,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -301,19 +240,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -325,22 +315,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,13 +348,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,169 +528,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,6 +539,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -564,17 +575,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,216 +625,175 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1161,8 +1151,8 @@
   <sheetPr/>
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1278,7 +1268,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
@@ -1289,7 +1279,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="3"/>
+      <c r="A16" s="1"/>
       <c r="B16" t="s">
         <v>21</v>
       </c>
@@ -1298,7 +1288,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="3"/>
+      <c r="A17" s="1"/>
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -1307,19 +1297,19 @@
       </c>
     </row>
     <row r="18" ht="108" spans="1:4">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="1"/>
+      <c r="B18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B19" t="s">
@@ -1330,19 +1320,19 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="3"/>
+      <c r="A20" s="1"/>
       <c r="B20" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="3"/>
+      <c r="A21" s="1"/>
       <c r="B21" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="3"/>
+      <c r="A22" s="1"/>
       <c r="B22" t="s">
         <v>30</v>
       </c>
@@ -1351,19 +1341,19 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="3"/>
+      <c r="A23" s="1"/>
       <c r="B23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="3"/>
+      <c r="A24" s="1"/>
       <c r="B24" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="3"/>
+      <c r="A25" s="1"/>
       <c r="B25" t="s">
         <v>33</v>
       </c>
@@ -1372,19 +1362,19 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="3"/>
+      <c r="A26" s="1"/>
       <c r="B26" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="3"/>
+      <c r="A27" s="1"/>
       <c r="B27" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="3"/>
+      <c r="A28" s="1"/>
       <c r="B28" t="s">
         <v>36</v>
       </c>
@@ -1393,19 +1383,19 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="3"/>
+      <c r="A29" s="1"/>
       <c r="B29" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="3"/>
+      <c r="A30" s="1"/>
       <c r="B30" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="3"/>
+      <c r="A31" s="1"/>
       <c r="B31" t="s">
         <v>39</v>
       </c>
@@ -1414,19 +1404,19 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="3"/>
+      <c r="A32" s="1"/>
       <c r="B32" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="3"/>
+      <c r="A33" s="1"/>
       <c r="B33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="3"/>
+      <c r="A34" s="1"/>
       <c r="B34" t="s">
         <v>42</v>
       </c>
@@ -1435,19 +1425,19 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="3"/>
+      <c r="A35" s="1"/>
       <c r="B35" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="3"/>
+      <c r="A36" s="1"/>
       <c r="B36" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="3"/>
+      <c r="A37" s="1"/>
       <c r="B37" t="s">
         <v>45</v>
       </c>
@@ -1456,19 +1446,19 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="3"/>
+      <c r="A38" s="1"/>
       <c r="B38" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="3"/>
+      <c r="A39" s="1"/>
       <c r="B39" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="3"/>
+      <c r="A40" s="1"/>
       <c r="B40" t="s">
         <v>48</v>
       </c>
@@ -1477,13 +1467,13 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="3"/>
+      <c r="A41" s="1"/>
       <c r="B41" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="3"/>
+      <c r="A42" s="1"/>
       <c r="B42" t="s">
         <v>50</v>
       </c>

--- a/code/featureList.xlsx
+++ b/code/featureList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050"/>
+    <workbookView windowWidth="19770" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>订单属性维度</t>
   </si>
@@ -55,7 +55,7 @@
     <t>起点，终点需求量</t>
   </si>
   <si>
-    <t>总数，均值，中位数，最大值，最小值</t>
+    <t>均值，中位数，最大值，最小值</t>
   </si>
   <si>
     <t>起点，终点需求量/ 历史相同终点的需求量</t>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>时间段 - 需求量</t>
-  </si>
-  <si>
-    <t>均值，中位数，最大值，最小值</t>
   </si>
   <si>
     <t>时间段:
@@ -182,9 +179,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -196,6 +193,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -203,7 +214,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,18 +242,74 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,73 +321,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -315,31 +329,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,187 +345,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,24 +542,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -571,17 +556,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,6 +580,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,16 +633,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,137 +660,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -795,6 +798,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1152,7 +1156,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1199,31 +1203,35 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
@@ -1298,22 +1306,22 @@
     </row>
     <row r="18" ht="108" spans="1:4">
       <c r="A18" s="1"/>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
         <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
@@ -1322,19 +1330,19 @@
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1"/>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
@@ -1343,19 +1351,19 @@
     <row r="23" spans="1:2">
       <c r="A23" s="1"/>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1"/>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1"/>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
@@ -1364,19 +1372,19 @@
     <row r="26" spans="1:2">
       <c r="A26" s="1"/>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1"/>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1"/>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
@@ -1385,19 +1393,19 @@
     <row r="29" spans="1:2">
       <c r="A29" s="1"/>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1"/>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1"/>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
@@ -1406,19 +1414,19 @@
     <row r="32" spans="1:2">
       <c r="A32" s="1"/>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1"/>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1"/>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
@@ -1427,19 +1435,19 @@
     <row r="35" spans="1:2">
       <c r="A35" s="1"/>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1"/>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1"/>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
         <v>13</v>
@@ -1448,19 +1456,19 @@
     <row r="38" spans="1:2">
       <c r="A38" s="1"/>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1"/>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1"/>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
@@ -1469,13 +1477,13 @@
     <row r="41" spans="1:2">
       <c r="A41" s="1"/>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1"/>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/code/featureList.xlsx
+++ b/code/featureList.xlsx
@@ -179,8 +179,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -192,48 +192,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -242,72 +200,100 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,22 +307,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,187 +351,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,11 +566,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,6 +631,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -594,64 +648,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -660,137 +666,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -799,10 +805,11 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1155,8 +1162,8 @@
   <sheetPr/>
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1275,44 +1282,47 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1"/>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1"/>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" ht="108" spans="1:4">
       <c r="A18" s="1"/>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>24</v>
       </c>
     </row>
